--- a/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04492828922074765</v>
+        <v>0.04335512089342453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09382939261710151</v>
+        <v>0.09650407549623845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09226870711495143</v>
+        <v>0.09419826168973665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1145796949193801</v>
+        <v>0.1126951433116817</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06533345177482622</v>
+        <v>0.06481192704090435</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1139363071525438</v>
+        <v>0.1126973474150406</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.110408795596572</v>
+        <v>0.1108093788784174</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1345730108688786</v>
+        <v>0.1348400492946085</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05882996198492551</v>
+        <v>0.05827144027282812</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1108016992402111</v>
+        <v>0.1120826047871095</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1091054219682907</v>
+        <v>0.1089117412228728</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.129503958617787</v>
+        <v>0.1301406783344798</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08162814162888515</v>
+        <v>0.08081199285968194</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1485418752251652</v>
+        <v>0.148777437814063</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1407900642578185</v>
+        <v>0.1426494626470784</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1589250070373496</v>
+        <v>0.1613412713984107</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1079077120664346</v>
+        <v>0.1078245028910609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1654832016841184</v>
+        <v>0.1675460645550757</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1676404630551321</v>
+        <v>0.1677187487894052</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1724076050886275</v>
+        <v>0.172745598581081</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0856550682528099</v>
+        <v>0.08718656514034728</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1513262646529538</v>
+        <v>0.1480596348682883</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1451224111369505</v>
+        <v>0.144806028392541</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1593090696646224</v>
+        <v>0.1614531677567513</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04394259341254707</v>
+        <v>0.04421638720017845</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08209401207668658</v>
+        <v>0.08168136445257024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07795382928757186</v>
+        <v>0.07928108800957664</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0944706999427668</v>
+        <v>0.09479094759686407</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07276570421213427</v>
+        <v>0.07427757423489482</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09749858715423813</v>
+        <v>0.09672630857328653</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1006970251875402</v>
+        <v>0.0988207911817317</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1184945768674616</v>
+        <v>0.118074488438949</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06389888544667023</v>
+        <v>0.06391209649597021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09599803963231322</v>
+        <v>0.09386610522728465</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09455166618557527</v>
+        <v>0.0929823134219937</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1106228899432369</v>
+        <v>0.1106092035267324</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07429311647401934</v>
+        <v>0.07525165247044312</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1216665523955097</v>
+        <v>0.1221756150707304</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1130636371413167</v>
+        <v>0.1157932102171738</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1300693775902589</v>
+        <v>0.1307300266571183</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1121129068252978</v>
+        <v>0.1107497892878859</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1379020287333784</v>
+        <v>0.1359760188110502</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1420557285578422</v>
+        <v>0.1412051751617179</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1494710545021904</v>
+        <v>0.1502122676349304</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08831705539453306</v>
+        <v>0.08806352802351824</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1236572140466499</v>
+        <v>0.1235929475707234</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1222777793758562</v>
+        <v>0.1225143626417892</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1353764181017775</v>
+        <v>0.1343073606294087</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03874354728359702</v>
+        <v>0.04036312900616345</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06901401181739181</v>
+        <v>0.07089699857914594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07283420560180649</v>
+        <v>0.07261677973808386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09796533315125835</v>
+        <v>0.09929549537738468</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05659335108368027</v>
+        <v>0.05534669772812362</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1026063941102564</v>
+        <v>0.1039496948177033</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05939566532270251</v>
+        <v>0.06010657805558207</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09686435345908707</v>
+        <v>0.09644297630884323</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05209456720033431</v>
+        <v>0.05306235595955883</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09140697114835743</v>
+        <v>0.09323748637350544</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07415506276725341</v>
+        <v>0.07238085201323671</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1023647853786303</v>
+        <v>0.101967408018685</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07282204227221309</v>
+        <v>0.07526975268824583</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1157847449982869</v>
+        <v>0.1145738962989561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1184335071058516</v>
+        <v>0.1185346234853697</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1455878436309689</v>
+        <v>0.1427934849773772</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09686588370188109</v>
+        <v>0.09623665258645744</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1529479750606522</v>
+        <v>0.1540506698217115</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.10120973429153</v>
+        <v>0.1013491921613001</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1347416648678513</v>
+        <v>0.1341976959323938</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07809669302070057</v>
+        <v>0.07888707572006519</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1268297618030211</v>
+        <v>0.1276858173794229</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1035596189822313</v>
+        <v>0.1023000009983675</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1318195616273519</v>
+        <v>0.1320062642091095</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04651340743938495</v>
+        <v>0.04679989044032672</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08150948898368818</v>
+        <v>0.08302304998489929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0598501316243876</v>
+        <v>0.06022469756969717</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1019606060977928</v>
+        <v>0.1022746323665341</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05375731046031254</v>
+        <v>0.05333444966955511</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09776638449492624</v>
+        <v>0.09536681326113311</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0878873483294062</v>
+        <v>0.08709196332033824</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.134619501124617</v>
+        <v>0.1366202762047717</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05398588388170975</v>
+        <v>0.0541048353883964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09755229798907525</v>
+        <v>0.09468747504526005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07808599481056516</v>
+        <v>0.07868609438735205</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1242106519110668</v>
+        <v>0.1235178113032828</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07635526609837701</v>
+        <v>0.07426487293179658</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1237991177661024</v>
+        <v>0.1265095220171007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09310837075795449</v>
+        <v>0.09548458783101341</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1403100983885003</v>
+        <v>0.1384845729322018</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08476864684936329</v>
+        <v>0.08682822736244278</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1375971768935667</v>
+        <v>0.1381050682617639</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1293514700374707</v>
+        <v>0.128420732831715</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1700039810309572</v>
+        <v>0.1704187008886255</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0747364940442509</v>
+        <v>0.07574407059060534</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1247647536616685</v>
+        <v>0.123809835494853</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1054091187922858</v>
+        <v>0.105668844581791</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1484474234999838</v>
+        <v>0.1482318435737094</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0506005079674793</v>
+        <v>0.05072564420296714</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09279444438169521</v>
+        <v>0.09250060057258822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08415955811630285</v>
+        <v>0.0843449968116326</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1102144921849681</v>
+        <v>0.1096740802742392</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07050587476787733</v>
+        <v>0.0700802020046396</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1119952580726624</v>
+        <v>0.1111766981195295</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09880474789283292</v>
+        <v>0.09983557221183989</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1303419372563774</v>
+        <v>0.1309294497317474</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06216473828129911</v>
+        <v>0.06312957525298749</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.105247849121919</v>
+        <v>0.1052829263503196</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09500765199792503</v>
+        <v>0.09515225705018535</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1226666724310728</v>
+        <v>0.1229501971917022</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06637043299411595</v>
+        <v>0.06620189561769277</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1140851299277312</v>
+        <v>0.1144735460232436</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1041296435324329</v>
+        <v>0.1047290231253397</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1299504596032464</v>
+        <v>0.1302675119909749</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08838687479010104</v>
+        <v>0.08890486802097994</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1355567187974031</v>
+        <v>0.1339714806560046</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1216046031479011</v>
+        <v>0.1220763438412802</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1477387047118719</v>
+        <v>0.1483317118681589</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07532482565275934</v>
+        <v>0.07503528001827912</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1210832459892789</v>
+        <v>0.1216662826989511</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.109623882212</v>
+        <v>0.1088872556888368</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1361884414991504</v>
+        <v>0.136862421940205</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31135</v>
+        <v>30045</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>65752</v>
+        <v>67627</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>62263</v>
+        <v>63565</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>79141</v>
+        <v>77840</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>44972</v>
+        <v>44613</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>79110</v>
+        <v>78250</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>74287</v>
+        <v>74557</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>98657</v>
+        <v>98853</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>81264</v>
+        <v>80493</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>154580</v>
+        <v>156367</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>147035</v>
+        <v>146774</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>184391</v>
+        <v>185297</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>56568</v>
+        <v>56002</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>104093</v>
+        <v>104258</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>95005</v>
+        <v>96260</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>109771</v>
+        <v>111440</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>74278</v>
+        <v>74221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>114901</v>
+        <v>116334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>112795</v>
+        <v>112848</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>126394</v>
+        <v>126642</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>118319</v>
+        <v>120435</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>211116</v>
+        <v>206559</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>195573</v>
+        <v>195146</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>226828</v>
+        <v>229881</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>42264</v>
+        <v>42527</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>83567</v>
+        <v>83147</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>79702</v>
+        <v>81059</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>99092</v>
+        <v>99428</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>70466</v>
+        <v>71930</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>100101</v>
+        <v>99308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>105018</v>
+        <v>103061</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>126888</v>
+        <v>126439</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>123337</v>
+        <v>123363</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>196282</v>
+        <v>191923</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>195282</v>
+        <v>192040</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>234493</v>
+        <v>234464</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>71455</v>
+        <v>72377</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>123850</v>
+        <v>124368</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>115600</v>
+        <v>118391</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>136432</v>
+        <v>137125</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>108569</v>
+        <v>107249</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>141583</v>
+        <v>139606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>148152</v>
+        <v>147265</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>160059</v>
+        <v>160853</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>170469</v>
+        <v>169980</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>252835</v>
+        <v>252703</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>252546</v>
+        <v>253034</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>286965</v>
+        <v>284699</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26288</v>
+        <v>27387</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>52212</v>
+        <v>53636</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>55321</v>
+        <v>55156</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>78577</v>
+        <v>79644</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38701</v>
+        <v>37848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>79652</v>
+        <v>80694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46626</v>
+        <v>47184</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>78621</v>
+        <v>78279</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>70971</v>
+        <v>72290</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>140111</v>
+        <v>142916</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>114537</v>
+        <v>111797</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>165191</v>
+        <v>164550</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>49410</v>
+        <v>51071</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>87596</v>
+        <v>86680</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>89956</v>
+        <v>90033</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>116774</v>
+        <v>114533</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>66241</v>
+        <v>65811</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>118731</v>
+        <v>119587</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>79451</v>
+        <v>79560</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>109365</v>
+        <v>108923</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>106395</v>
+        <v>107472</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>194407</v>
+        <v>195720</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>159954</v>
+        <v>158009</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>212724</v>
+        <v>213025</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43826</v>
+        <v>44096</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>77102</v>
+        <v>78534</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56114</v>
+        <v>56465</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>100947</v>
+        <v>101258</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>55833</v>
+        <v>55394</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>102534</v>
+        <v>100017</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>91735</v>
+        <v>90905</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>150374</v>
+        <v>152609</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>106937</v>
+        <v>107173</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>194587</v>
+        <v>188873</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>154715</v>
+        <v>155904</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>261723</v>
+        <v>260264</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>71944</v>
+        <v>69974</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>117105</v>
+        <v>119669</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>87295</v>
+        <v>89523</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>138916</v>
+        <v>137108</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>88042</v>
+        <v>90181</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>144307</v>
+        <v>144839</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>135014</v>
+        <v>134043</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>189900</v>
+        <v>190363</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>148041</v>
+        <v>150036</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>248868</v>
+        <v>246963</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>208852</v>
+        <v>209367</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>312793</v>
+        <v>312338</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>165743</v>
+        <v>166153</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>317467</v>
+        <v>316461</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>285667</v>
+        <v>286296</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>389253</v>
+        <v>387344</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>238253</v>
+        <v>236815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>397144</v>
+        <v>394241</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>350218</v>
+        <v>353871</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>486520</v>
+        <v>488713</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>413689</v>
+        <v>420110</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>733289</v>
+        <v>733534</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>659248</v>
+        <v>660251</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>891102</v>
+        <v>893162</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>217398</v>
+        <v>216846</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>390306</v>
+        <v>391635</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>353452</v>
+        <v>355487</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>458956</v>
+        <v>460076</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>298677</v>
+        <v>300427</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>480695</v>
+        <v>475074</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>431033</v>
+        <v>432705</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>551456</v>
+        <v>553670</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>501266</v>
+        <v>499339</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>843619</v>
+        <v>847681</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>760668</v>
+        <v>755557</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>989330</v>
+        <v>994226</v>
       </c>
     </row>
     <row r="24">
